--- a/PAMI-B.xlsx
+++ b/PAMI-B.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\professor\Desktop\AF AVALIACAO FINAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA0EE5-78E8-45D1-8843-9046F5C2A533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUNOS" sheetId="1" r:id="rId1"/>
-    <sheet name="AVALIAÇÕES" sheetId="2" r:id="rId3"/>
+    <sheet name="AVALIAÇÕES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="68">
   <si>
     <t>RM</t>
   </si>
@@ -214,15 +222,15 @@
   </si>
   <si>
     <t>Recuperação</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -243,12 +251,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3" tint="0"/>
+        <fgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF80" tint="0"/>
+        <fgColor rgb="FFFFFF80"/>
       </patternFill>
     </fill>
   </fills>
@@ -261,57 +269,363 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.9934158325195" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="11" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -346,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -363,10 +677,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
@@ -381,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -398,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -416,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -433,10 +747,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -451,7 +765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -468,10 +782,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
@@ -486,7 +800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -503,10 +817,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>15</v>
@@ -521,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -538,10 +852,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>15</v>
@@ -556,7 +870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -573,10 +887,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>15</v>
@@ -591,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -608,10 +922,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
@@ -626,7 +940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -643,10 +957,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>15</v>
@@ -661,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -678,10 +992,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>15</v>
@@ -696,7 +1010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -713,10 +1027,10 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>15</v>
@@ -731,7 +1045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -748,10 +1062,10 @@
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>15</v>
@@ -766,7 +1080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -783,10 +1097,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>15</v>
@@ -801,7 +1115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -818,10 +1132,10 @@
         <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>15</v>
@@ -836,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -853,10 +1167,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>15</v>
@@ -871,7 +1185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -888,10 +1202,10 @@
         <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>15</v>
@@ -906,7 +1220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -923,10 +1237,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>15</v>
@@ -941,7 +1255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -958,10 +1272,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>15</v>
@@ -976,7 +1290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -993,10 +1307,10 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>15</v>
@@ -1011,7 +1325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1028,10 +1342,10 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>15</v>
@@ -1046,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -1063,10 +1377,10 @@
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>15</v>
@@ -1083,13 +1397,13 @@
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1097,15 +1411,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.5067253112793" customWidth="1"/>
-    <col min="2" max="2" width="11.8295488357544" customWidth="1"/>
-    <col min="3" max="3" width="11.8295488357544" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1119,7 +1432,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -1133,7 +1446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -1147,7 +1460,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1161,7 +1474,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1177,7 +1490,7 @@
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/PAMI-B.xlsx
+++ b/PAMI-B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\professor\Desktop\AF AVALIACAO FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA0EE5-78E8-45D1-8843-9046F5C2A533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6B7744-CF80-4BC7-8886-FAD730415157}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="68">
   <si>
     <t>RM</t>
   </si>
@@ -231,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -240,6 +240,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -287,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -295,11 +301,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -614,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -683,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -718,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -753,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -769,7 +787,7 @@
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -788,7 +806,7 @@
         <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
@@ -823,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
@@ -858,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -874,7 +892,7 @@
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -893,7 +911,7 @@
         <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -928,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -963,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>15</v>
@@ -998,7 +1016,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>15</v>
@@ -1033,7 +1051,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>15</v>
@@ -1049,7 +1067,7 @@
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1068,7 +1086,7 @@
         <v>67</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>15</v>
@@ -1103,7 +1121,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>15</v>
@@ -1138,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>15</v>
@@ -1154,7 +1172,7 @@
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1173,7 +1191,7 @@
         <v>67</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>15</v>
@@ -1208,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
@@ -1243,7 +1261,7 @@
         <v>23</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>15</v>
@@ -1278,7 +1296,7 @@
         <v>67</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
@@ -1313,7 +1331,7 @@
         <v>67</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>15</v>
@@ -1348,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>15</v>
@@ -1383,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>15</v>
@@ -1396,6 +1414,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:K22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions gridLines="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape"/>
